--- a/biology/Botanique/Lysimachia_foemina/Lysimachia_foemina.xlsx
+++ b/biology/Botanique/Lysimachia_foemina/Lysimachia_foemina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lysimachia foemina (syn. Anagallis foemina), le Mouron bleu, est une espèce de plantes à fleurs de la famille des Primulaceae.
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lysimachia_foemina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lysimachia_foemina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : bleu
 Période de floraison : juin-décembre
 Inflorescence : racème simple
@@ -533,38 +582,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lysimachia_foemina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lysimachia_foemina</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Synonymes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anagallis arvensis subsp. foemina  (Mill.) Schinz &amp; Thell. - Certains auteurs reconnaissent ce nom.
-Anagallis arvensis subsp. caerulea Hartm.
-Lysimachia foemina (Mill.) U.Manns &amp; Anderb[1].</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -586,13 +603,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anagallis arvensis subsp. foemina  (Mill.) Schinz &amp; Thell. - Certains auteurs reconnaissent ce nom.
+Anagallis arvensis subsp. caerulea Hartm.
+Lysimachia foemina (Mill.) U.Manns &amp; Anderb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lysimachia_foemina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lysimachia_foemina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il ne faut pas confondre cette espèce avec la forme aux fleurs bleues du mouron rouge (Anagallis arvensis f. azurea Hyl.).
-Pour différencier Anagallis foemina des formes bleues du mouron rouge, il faut, comme précisé p. 306 de la Flore de Belgique[2], examiner les pétales à la loupe, compter le nombre de poils glanduleux du bord des pétales et examiner le nombre et la forme des cellules de ces poils. 
+Pour différencier Anagallis foemina des formes bleues du mouron rouge, il faut, comme précisé p. 306 de la Flore de Belgique, examiner les pétales à la loupe, compter le nombre de poils glanduleux du bord des pétales et examiner le nombre et la forme des cellules de ces poils. 
 Anagallis foemina : pétales dépourvus de poils glanduleux au bord ou ceux-ci peu nombreux (moins de 30 par pétale), formés de (3-)4 cellules, la terminale plus longue que large. Et d'après Georges SFIKAS 2  : Pédicelles des fleurs  généralement moins longs que la feuille correspondante. Feuilles moins ovales, plus lancéolées qu'arvensis.
 Anagallis arvensis : pétales pourvus au bord de poils glanduleux abondants (35-70 par pétale), toujours formés de 3 cellules, la terminale subglobuleuse.</t>
         </is>
